--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3461931.524486017</v>
+        <v>3465337.015610464</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836233</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>109.4422623037129</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>30.04225112093034</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>55.90301252244922</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>395.8935665691967</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>196.3919720286068</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.99033455509902</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>68.19029374363589</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>164.6242057717098</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.1951034842255</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.780687729549</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292652</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851122</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247769</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734103036</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>13.45626091501155</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983829</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004763</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>156.9358197742861</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292652</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851122</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247769</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734103036</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004763</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>274.5932299693695</v>
+        <v>15.11174121956416</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534548</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492315</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U22" t="n">
-        <v>270.0697021486461</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>58.65179830488137</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>267.5605446743774</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292569</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.626889274475</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>208.5297823800585</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>190.5278853151873</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492316</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015447828</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192033</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>33.48310077427432</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>100.3282915021408</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.3221432721089</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C2" t="n">
-        <v>185.3596263316971</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>185.3596263316971</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>185.3596263316971</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>178.4141255824937</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>164.4907215210846</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>164.4907215210846</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.803382815262</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.803382815262</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.803382815262</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2666.803382815262</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2335.740495471692</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1982.971840201577</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1609.506081940498</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="3">
@@ -4409,19 +4409,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>110.4106712369798</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1580.775345511217</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C5" t="n">
-        <v>1211.812828570805</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D5" t="n">
-        <v>853.5471299640549</v>
+        <v>798.5184404945476</v>
       </c>
       <c r="E5" t="n">
-        <v>467.7588773658106</v>
+        <v>412.7301878963033</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>405.7846871470999</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748109</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487029</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
         <v>266.2060027641994</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694737</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694737</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D7" t="n">
-        <v>438.7118141694737</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>438.7118141694737</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>291.8218666715634</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>122.8220664098958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>122.8220664098958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>659.249899616903</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694737</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694737</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694737</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1744.232431292459</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1375.269914352047</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1017.004215745297</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>631.2159631470527</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>220.2300583574451</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2130.832271356581</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>68.281470188269</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>249.9299350185087</v>
       </c>
     </row>
     <row r="11">
@@ -5023,58 +5023,58 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551628</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277716</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563069</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1557.603359811476</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483398</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542177</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232737</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.59277249732</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216193</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494863</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468567</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939011</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919357</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320206</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454334</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008787</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142684</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902941</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5159,7 +5159,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>340.7998052124422</v>
+        <v>500.6091747370206</v>
       </c>
       <c r="C13" t="n">
-        <v>340.7998052124422</v>
+        <v>500.6091747370206</v>
       </c>
       <c r="D13" t="n">
-        <v>340.7998052124422</v>
+        <v>500.6091747370206</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>352.6960811546274</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121915</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121915</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>192.8867116300493</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442051</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927004</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518525</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952183</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862225</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689051</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1674.827124689051</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258583</v>
+        <v>1385.724257814695</v>
       </c>
       <c r="V13" t="n">
-        <v>1198.376021052696</v>
+        <v>1131.039769608808</v>
       </c>
       <c r="W13" t="n">
-        <v>908.9588510157357</v>
+        <v>1131.039769608808</v>
       </c>
       <c r="X13" t="n">
-        <v>680.9693001177184</v>
+        <v>903.0502187107904</v>
       </c>
       <c r="Y13" t="n">
-        <v>522.4482700426819</v>
+        <v>682.2576395672603</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551628</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277716</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563069</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622701</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294622</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353402</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232737</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5314,7 +5314,7 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W14" t="n">
         <v>3524.42128699119</v>
@@ -5323,7 +5323,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.59277249732</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216193</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494863</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468567</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939011</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919357</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320332</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454347</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.0000320088</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426853</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902954</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5396,7 +5396,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.6138567886371</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C16" t="n">
-        <v>245.6776738607302</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5436,52 +5436,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442051</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927004</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518525</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952183</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862225</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689051</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862231</v>
+        <v>1453.060509258577</v>
       </c>
       <c r="U16" t="n">
-        <v>1589.146109903272</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V16" t="n">
-        <v>1334.461621697385</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W16" t="n">
-        <v>1045.044451660424</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X16" t="n">
-        <v>817.0549007624069</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y16" t="n">
-        <v>596.2623216188767</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551634</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,19 +5515,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195856</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5542,25 +5542,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193586</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433621</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998319</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>907.9024249011982</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1772.421240554553</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2750.971543384381</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,16 +5861,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,22 +5925,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
         <v>1270.093287563029</v>
@@ -5977,34 +5977,34 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>753.1470291944236</v>
       </c>
       <c r="L23" t="n">
-        <v>1971.087962216427</v>
+        <v>1617.665844847778</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.189928969821</v>
+        <v>2151.197749519703</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196468</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P23" t="n">
         <v>4405.689038432983</v>
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>301.022461942538</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>301.022461942538</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>301.022461942538</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>301.022461942538</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>301.022461942538</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839441</v>
@@ -6147,10 +6147,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.657581931529</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1475.554715057173</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1220.870226851286</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W25" t="n">
-        <v>931.4530568143252</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>703.4635059163079</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>482.6709267727778</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089254</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>888.4135721382784</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.447785386687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2317.998088216515</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3297.750360443162</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.722831322499</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1745.707322286463</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1456.290152249502</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>1228.300601351485</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>1007.508022207955</v>
       </c>
     </row>
     <row r="29">
@@ -6454,46 +6454,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,7 +6572,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
         <v>2043.809373447819</v>
@@ -6581,7 +6581,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,22 +6700,22 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>888.4135721382784</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1339.447785386687</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M32" t="n">
-        <v>2317.998088216515</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N32" t="n">
-        <v>3297.750360443162</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.722831322499</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679677</v>
@@ -6727,25 +6727,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839441</v>
@@ -6858,10 +6858,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689057</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258583</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384227</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V34" t="n">
-        <v>909.27315417834</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413794</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X34" t="n">
-        <v>391.8664332433621</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998319</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="35">
@@ -6916,46 +6916,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6964,19 +6964,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7031,13 +7031,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7055,7 +7055,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7098,31 +7098,31 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T37" t="n">
         <v>1559.196154437386</v>
@@ -7153,16 +7153,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7201,19 +7201,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7356,25 +7356,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
         <v>277.2094992786341</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.5269503710301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
         <v>95.56103444839442</v>
@@ -7602,19 +7602,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1288.206478295169</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>998.7893082582084</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>964.9679943448</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.1754152012699</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7654,13 +7654,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232731</v>
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>529.525731183237</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1765.171300274211</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1476.068433399854</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1221.383945193968</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>931.9667751570069</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>931.9667751570069</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>711.1741960134767</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836477018</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>344.7025836477017</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9166,19 +9166,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>219.3344627260169</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>123.4719563470495</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>136.2499899971285</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>23.80814351663651</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>103.7862464855143</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792002</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10123,10 +10123,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>344.7025836476849</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10351,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>103.7862464855143</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>251.1867816683974</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>67.53663776704411</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>131.9647871079197</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>61.64883357780866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983829</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>11.61860823624335</v>
+        <v>271.1000969860487</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270141</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U22" t="n">
-        <v>16.14213605696682</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>107.3740099541469</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>18.96245366221359</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>43.60786094376948</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>61.60975800864071</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>182.1679443159941</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>16.14213605696585</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.2265546147628</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>119.2206577740284</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695865.7317752832</v>
+        <v>695865.7317752833</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695865.7317752832</v>
+        <v>695865.7317752833</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
+        <v>714747.2163965695</v>
+      </c>
+      <c r="F2" t="n">
+        <v>714747.2163965694</v>
+      </c>
+      <c r="G2" t="n">
+        <v>714747.2163965708</v>
+      </c>
+      <c r="H2" t="n">
         <v>714747.2163965704</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>714747.2163965706</v>
-      </c>
-      <c r="G2" t="n">
-        <v>714747.2163965701</v>
-      </c>
-      <c r="H2" t="n">
-        <v>714747.2163965703</v>
-      </c>
-      <c r="I2" t="n">
-        <v>714747.2163965704</v>
       </c>
       <c r="J2" t="n">
         <v>714747.2163965706</v>
       </c>
       <c r="K2" t="n">
-        <v>714747.2163965706</v>
+        <v>714747.2163965704</v>
       </c>
       <c r="L2" t="n">
-        <v>714747.2163965704</v>
+        <v>714747.2163965707</v>
       </c>
       <c r="M2" t="n">
-        <v>714747.2163965704</v>
+        <v>714747.2163965701</v>
       </c>
       <c r="N2" t="n">
+        <v>714747.2163965708</v>
+      </c>
+      <c r="O2" t="n">
         <v>714747.2163965707</v>
       </c>
-      <c r="O2" t="n">
-        <v>714747.2163965704</v>
-      </c>
       <c r="P2" t="n">
-        <v>714747.2163965708</v>
+        <v>714747.2163965703</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934039</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.828481228789315e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.314838945</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709208</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709208</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709181</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709182</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
@@ -26472,25 +26472,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371358</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371358</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371363</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26502,7 +26502,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126095.9607925288</v>
+        <v>-126095.9607925292</v>
       </c>
       <c r="C6" t="n">
-        <v>463871.9184220152</v>
+        <v>463871.9184220153</v>
       </c>
       <c r="D6" t="n">
-        <v>463871.9184220155</v>
+        <v>463871.9184220153</v>
       </c>
       <c r="E6" t="n">
-        <v>-131305.2787498996</v>
+        <v>-130700.5193378658</v>
       </c>
       <c r="F6" t="n">
-        <v>596072.1352435072</v>
+        <v>596676.8946555379</v>
       </c>
       <c r="G6" t="n">
-        <v>596072.1352435068</v>
+        <v>596676.8946555367</v>
       </c>
       <c r="H6" t="n">
-        <v>596072.135243507</v>
+        <v>596676.8946555392</v>
       </c>
       <c r="I6" t="n">
-        <v>596072.1352435071</v>
+        <v>596676.8946555393</v>
       </c>
       <c r="J6" t="n">
-        <v>419648.916050914</v>
+        <v>420253.6754629463</v>
       </c>
       <c r="K6" t="n">
-        <v>596072.1352435072</v>
+        <v>596676.8946555392</v>
       </c>
       <c r="L6" t="n">
-        <v>596072.1352435071</v>
+        <v>596676.8946555394</v>
       </c>
       <c r="M6" t="n">
-        <v>466429.8204045622</v>
+        <v>467034.5798165937</v>
       </c>
       <c r="N6" t="n">
-        <v>596072.1352435073</v>
+        <v>596676.8946555395</v>
       </c>
       <c r="O6" t="n">
-        <v>596072.1352435071</v>
+        <v>596676.8946555394</v>
       </c>
       <c r="P6" t="n">
-        <v>596072.1352435075</v>
+        <v>596676.8946555391</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593295</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593295</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26770,7 +26770,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.927598559075265e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762081</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.927598559075265e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>42.48905394114831</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>24.43615145388137</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>92.71246049576314</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.98247917251479</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>217.3921979921882</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>111.9752872372392</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>183.9473495801921</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>249.1599642490852</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>153.0517176144023</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594881</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.094235813070554e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681583</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844653</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974794</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953976</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003791</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.356529362317</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574969</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990094997</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099035</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746392</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781674</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806918</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451114</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345266</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502559</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798524</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752231</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353145</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138779</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233455</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837904</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970232</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002912</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987604</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905536</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238302</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898467</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046221</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430531</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311873</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451741999</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702017</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909881</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316422</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883105</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085992</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802161</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895875</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712186</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553025</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112267</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780291</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681583</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844653</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974794</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953976</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003791</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.356529362317</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574969</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990094997</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099035</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746392</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781674</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806918</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451114</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345266</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502559</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798524</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752231</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353145</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138906</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233455</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837904</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970232</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002912</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987477</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905536</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238302</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898467</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046221</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430531</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311873</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451741999</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702017</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909881</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316422</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883105</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085992</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802161</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895875</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712186</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553025</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112267</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780291</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33991,10 +33991,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407851</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265633</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923298</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302242</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129088</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359185</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908524</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636226</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152063</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597637</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609555</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340037</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013271</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004572</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525787</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985961</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127389</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306577</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443188</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701972</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934828</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.856946167539</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226389</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451096</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789312</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407851</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265633</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400315</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302242</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129088</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882167</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908524</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636226</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152063</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597637</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609555</v>
       </c>
       <c r="L15" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340164</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013271</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004572</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525787</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985961</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306577</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443188</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701972</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934828</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.856946167539</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226389</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451096</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789312</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>771.6362981389282</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>460.6632429024498</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>473.441276552529</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>562.729259346863</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>440.9775330409147</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>897.0044190605962</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,25 +37071,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>440.9775330409147</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>759.2397825566165</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>575.5896386552631</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
